--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -1,71 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C607AE9-764B-418A-8230-932203077D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0E15C-8F37-4E95-846C-358A36738C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11868" windowHeight="2676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="Keywords" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>UserName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>ProceedOnFail</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>Loginsuccess</t>
+  </si>
+  <si>
+    <t>VerifyReport</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>login_xpath</t>
+  </si>
+  <si>
+    <t>webpuff.pagerepo.testpage</t>
+  </si>
+  <si>
+    <t>kartikraman</t>
+  </si>
+  <si>
     <t>Suma</t>
   </si>
   <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Sudheer</t>
-  </si>
-  <si>
-    <t>raliegh</t>
-  </si>
-  <si>
-    <t>Cignitiracqa@gmail.com</t>
-  </si>
-  <si>
-    <t>India@123</t>
-  </si>
-  <si>
-    <t>RunMode</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>cigniti</t>
+    <t>chicago</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Nandini</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>cartiter</t>
+  </si>
+  <si>
+    <t>aquarium</t>
+  </si>
+  <si>
+    <t>Addtocart</t>
+  </si>
+  <si>
+    <t>Addtocart1</t>
+  </si>
+  <si>
+    <t>VerifyReport12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,18 +156,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -124,44 +215,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -189,14 +280,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -224,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -235,216 +360,597 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0E15C-8F37-4E95-846C-358A36738C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAEEFEB-3CE2-4B12-AC6F-4BB1CF63CE73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>TCID</t>
   </si>
@@ -110,13 +110,22 @@
   </si>
   <si>
     <t>VerifyReport12</t>
+  </si>
+  <si>
+    <t>Cignitiracqa@gmail.com</t>
+  </si>
+  <si>
+    <t>India@123</t>
+  </si>
+  <si>
+    <t>cigniti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +144,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,10 +189,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -187,8 +205,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,7 +548,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +675,7 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,86 +891,34 @@
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="77" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{AEF96988-ABD5-43DD-AEC3-7FA0A1E7EA01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAEEFEB-3CE2-4B12-AC6F-4BB1CF63CE73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE451F94-D8BA-4B41-BEA8-EC8ABE42BA10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -67,9 +67,6 @@
     <t>VerifyReport</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>Page</t>
   </si>
   <si>
@@ -119,6 +116,39 @@
   </si>
   <si>
     <t>cigniti</t>
+  </si>
+  <si>
+    <t>navigatetocartfromhomepage</t>
+  </si>
+  <si>
+    <t>additemstocart</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>VerifyReport1</t>
+  </si>
+  <si>
+    <t>VerifyReport2</t>
+  </si>
+  <si>
+    <t>VerifyReport3</t>
+  </si>
+  <si>
+    <t>VerifyReport4</t>
+  </si>
+  <si>
+    <t>VerifyReport5</t>
+  </si>
+  <si>
+    <t>VerifyReport6</t>
+  </si>
+  <si>
+    <t>VerifyReport7</t>
+  </si>
+  <si>
+    <t>VerifyReport8</t>
   </si>
 </sst>
 </file>
@@ -545,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +588,7 @@
     <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,11 +596,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -581,17 +675,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.88671875" customWidth="1"/>
@@ -612,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
@@ -651,18 +745,36 @@
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -674,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +804,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -714,10 +826,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -728,10 +840,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -742,10 +854,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -753,7 +865,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -761,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -775,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -789,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -803,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -814,7 +926,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -822,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -836,10 +948,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -850,10 +962,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -864,10 +976,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
@@ -883,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -900,13 +1012,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
